--- a/python-demo/application/resources/api-demo/test-A.xlsx
+++ b/python-demo/application/resources/api-demo/test-A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>标题</t>
   </si>
@@ -49,16 +49,19 @@
   <si>
     <t>店铺</t>
   </si>
+  <si>
+    <t>葡萄2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -74,17 +77,38 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,51 +122,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,65 +159,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -227,13 +230,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,31 +320,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,133 +404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +421,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -436,16 +468,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -466,11 +498,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,51 +521,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -536,133 +539,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -730,6 +733,161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3459480" y="220980"/>
+          <a:ext cx="777240" cy="815340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1111</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>this is textbox1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3451860" y="1188720"/>
+          <a:ext cx="1729740" cy="1051560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>222</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>this is textbox2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1090,7 +1248,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1156,7 +1314,7 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1185,5 +1343,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/python-demo/application/resources/api-demo/test-A.xlsx
+++ b/python-demo/application/resources/api-demo/test-A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="20328" windowHeight="8675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,8 +58,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -78,15 +78,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,20 +100,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -129,7 +107,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,9 +123,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,6 +146,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -175,49 +160,64 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -230,12 +230,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -248,31 +398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,133 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,29 +426,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,17 +448,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,6 +481,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -512,25 +521,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,133 +539,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -745,10 +745,10 @@
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>38735</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -758,7 +758,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3459480" y="220980"/>
-          <a:ext cx="777240" cy="815340"/>
+          <a:ext cx="2171700" cy="808355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -804,7 +804,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>this is textbox1</a:t>
+            <a:t>this is textbox1郑州市轨道交通4号线工程信号系统项目</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -1248,7 +1248,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="3"/>
